--- a/biology/Botanique/Melocactus_matanzanus/Melocactus_matanzanus.xlsx
+++ b/biology/Botanique/Melocactus_matanzanus/Melocactus_matanzanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melocactus matanzanus est une espèce du genre Melocactus de la famille des Cactaceae. Elle doit son nom à la province de Matanzas au nord-est de Cuba dont elle est originaire.
 Melocactus matanzanus est le premier cactus ramené du Nouveau Monde en Europe par Christophe Colomb.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante globulaire charnue d'une hauteur de 7 à 9 cm et d'un diamètre de 8 à 9 cm. Avec 8 cotes ou plus. Les épines sont en étoile de couleur brun-grisâtre ou blanches.
 Comme toutes les espèces du genre Matanzanus, quand la plante atteint un certain âge, elle développe un cephalium à son sommet. D'où parfois son surnom de chapeau de Turc. C'est une structure avec une laine marron-rougeâtre qui peut atteindre une hauteur de 9 cm au-dessus de la plante. Et c'est aussi sur cette structure que poussent les fleurs de couleur rouge et de 5 cm de long environ.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est un peu délicate à cultiver, car à l'inverse de la plupart des cactus, elle nécessite un minimum d'humidité sans toutefois risquer la pourriture. La température hivernale doit dépasser les 15 °C.
 </t>
